--- a/doc/ue_texture2d.xlsx
+++ b/doc/ue_texture2d.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBB3EDA-4631-4767-822B-D772023DCEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60950011-8AA7-4643-B76A-D17D8AD18FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>void UTexture::PostLoad()</t>
   </si>
@@ -497,6 +497,23 @@
   </si>
   <si>
     <t>各个平台下创建渲染对象资源，都有自己的句柄之类的对象信息，全部再自己的类里面保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTextureReferenceRHIRef TextureReferenceRHI;</t>
+  </si>
+  <si>
+    <t>// A FRHITextureReference to update whenever the FTexture::TextureRHI changes.</t>
+  </si>
+  <si>
+    <t>// It allows to prevent dereferencing the UAsset pointers when updating a texture resource.</t>
+  </si>
+  <si>
+    <t>！！！用于更换TextureRHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastRenderTime;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87D35A4-B0BB-4673-803C-28AD89B7E34C}">
-  <dimension ref="B3:P48"/>
+  <dimension ref="B3:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,7 +943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G21" s="4" t="s">
         <v>103</v>
       </c>
@@ -937,17 +954,17 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H24" t="s">
         <v>43</v>
       </c>
@@ -961,96 +978,114 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:17" x14ac:dyDescent="0.2">
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
         <v>55</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:17" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
         <v>56</v>
       </c>
       <c r="J27" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
+    <row r="30" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
+    <row r="35" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M38" s="4" t="s">
+    <row r="42" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="M42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-    </row>
-    <row r="39" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M39" t="s">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="M40" t="s">
+    <row r="44" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="N41" s="1" t="s">
+    <row r="45" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N45" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="N42" s="3" t="s">
+    <row r="46" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="N43" s="3" t="s">
+    <row r="47" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O44" t="s">
+    <row r="48" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O45" t="s">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O46" t="s">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O47" t="s">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="13:16" x14ac:dyDescent="0.2">
-      <c r="O48" t="s">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1239,7 +1274,7 @@
   <dimension ref="B2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
